--- a/natmiOut/OldD7/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.490401492978769</v>
+        <v>0.5054393333333334</v>
       </c>
       <c r="H2">
-        <v>0.490401492978769</v>
+        <v>1.516318</v>
       </c>
       <c r="I2">
-        <v>0.181359330612683</v>
+        <v>0.1786582562510795</v>
       </c>
       <c r="J2">
-        <v>0.181359330612683</v>
+        <v>0.1786582562510796</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>3.59471507652875</v>
+        <v>0.19157</v>
       </c>
       <c r="N2">
-        <v>3.59471507652875</v>
+        <v>0.5747100000000001</v>
       </c>
       <c r="O2">
-        <v>0.9095873689286802</v>
+        <v>0.04039874491219805</v>
       </c>
       <c r="P2">
-        <v>0.9095873689286802</v>
+        <v>0.04039874491219806</v>
       </c>
       <c r="Q2">
-        <v>1.762853640362989</v>
+        <v>0.09682701308666668</v>
       </c>
       <c r="R2">
-        <v>1.762853640362989</v>
+        <v>0.8714431177800002</v>
       </c>
       <c r="S2">
-        <v>0.164962156362657</v>
+        <v>0.007217569320745475</v>
       </c>
       <c r="T2">
-        <v>0.164962156362657</v>
+        <v>0.007217569320745478</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.490401492978769</v>
+        <v>0.5054393333333334</v>
       </c>
       <c r="H3">
-        <v>0.490401492978769</v>
+        <v>1.516318</v>
       </c>
       <c r="I3">
-        <v>0.181359330612683</v>
+        <v>0.1786582562510795</v>
       </c>
       <c r="J3">
-        <v>0.181359330612683</v>
+        <v>0.1786582562510796</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.357313281959381</v>
+        <v>3.688005666666667</v>
       </c>
       <c r="N3">
-        <v>0.357313281959381</v>
+        <v>11.064017</v>
       </c>
       <c r="O3">
-        <v>0.0904126310713198</v>
+        <v>0.777735554431318</v>
       </c>
       <c r="P3">
-        <v>0.0904126310713198</v>
+        <v>0.777735554431318</v>
       </c>
       <c r="Q3">
-        <v>0.1752269669340243</v>
+        <v>1.864063125489556</v>
       </c>
       <c r="R3">
-        <v>0.1752269669340243</v>
+        <v>16.776568129406</v>
       </c>
       <c r="S3">
-        <v>0.01639717425002603</v>
+        <v>0.1389488779791658</v>
       </c>
       <c r="T3">
-        <v>0.01639717425002603</v>
+        <v>0.1389488779791659</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.63255151052612</v>
+        <v>0.5054393333333334</v>
       </c>
       <c r="H4">
-        <v>1.63255151052612</v>
+        <v>1.516318</v>
       </c>
       <c r="I4">
-        <v>0.6037470386587094</v>
+        <v>0.1786582562510795</v>
       </c>
       <c r="J4">
-        <v>0.6037470386587094</v>
+        <v>0.1786582562510796</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.59471507652875</v>
+        <v>0.06405566666666666</v>
       </c>
       <c r="N4">
-        <v>3.59471507652875</v>
+        <v>0.192167</v>
       </c>
       <c r="O4">
-        <v>0.9095873689286802</v>
+        <v>0.01350821390534768</v>
       </c>
       <c r="P4">
-        <v>0.9095873689286802</v>
+        <v>0.01350821390534768</v>
       </c>
       <c r="Q4">
-        <v>5.868557528098028</v>
+        <v>0.03237625345622222</v>
       </c>
       <c r="R4">
-        <v>5.868557528098028</v>
+        <v>0.291386281106</v>
       </c>
       <c r="S4">
-        <v>0.5491606803920577</v>
+        <v>0.002413353941396001</v>
       </c>
       <c r="T4">
-        <v>0.5491606803920577</v>
+        <v>0.002413353941396002</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.63255151052612</v>
+        <v>0.5054393333333334</v>
       </c>
       <c r="H5">
-        <v>1.63255151052612</v>
+        <v>1.516318</v>
       </c>
       <c r="I5">
-        <v>0.6037470386587094</v>
+        <v>0.1786582562510795</v>
       </c>
       <c r="J5">
-        <v>0.6037470386587094</v>
+        <v>0.1786582562510796</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.357313281959381</v>
+        <v>0.7983476666666668</v>
       </c>
       <c r="N5">
-        <v>0.357313281959381</v>
+        <v>2.395043</v>
       </c>
       <c r="O5">
-        <v>0.0904126310713198</v>
+        <v>0.1683574867511363</v>
       </c>
       <c r="P5">
-        <v>0.0904126310713198</v>
+        <v>0.1683574867511363</v>
       </c>
       <c r="Q5">
-        <v>0.5833323381938328</v>
+        <v>0.4035163124082223</v>
       </c>
       <c r="R5">
-        <v>0.5833323381938328</v>
+        <v>3.631646811674</v>
       </c>
       <c r="S5">
-        <v>0.05458635826665174</v>
+        <v>0.03007845500977225</v>
       </c>
       <c r="T5">
-        <v>0.05458635826665174</v>
+        <v>0.03007845500977225</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.380258863570162</v>
+        <v>1.665224</v>
       </c>
       <c r="H6">
-        <v>0.380258863570162</v>
+        <v>4.995672000000001</v>
       </c>
       <c r="I6">
-        <v>0.1406265966641537</v>
+        <v>0.5886087537853821</v>
       </c>
       <c r="J6">
-        <v>0.1406265966641537</v>
+        <v>0.5886087537853822</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.59471507652875</v>
+        <v>0.19157</v>
       </c>
       <c r="N6">
-        <v>3.59471507652875</v>
+        <v>0.5747100000000001</v>
       </c>
       <c r="O6">
-        <v>0.9095873689286802</v>
+        <v>0.04039874491219805</v>
       </c>
       <c r="P6">
-        <v>0.9095873689286802</v>
+        <v>0.04039874491219806</v>
       </c>
       <c r="Q6">
-        <v>1.36692226985935</v>
+        <v>0.3190069616800001</v>
       </c>
       <c r="R6">
-        <v>1.36692226985935</v>
+        <v>2.871062655120001</v>
       </c>
       <c r="S6">
-        <v>0.1279121760611422</v>
+        <v>0.02377905489726244</v>
       </c>
       <c r="T6">
-        <v>0.1279121760611422</v>
+        <v>0.02377905489726245</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.380258863570162</v>
+        <v>1.665224</v>
       </c>
       <c r="H7">
-        <v>0.380258863570162</v>
+        <v>4.995672000000001</v>
       </c>
       <c r="I7">
-        <v>0.1406265966641537</v>
+        <v>0.5886087537853821</v>
       </c>
       <c r="J7">
-        <v>0.1406265966641537</v>
+        <v>0.5886087537853822</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.357313281959381</v>
+        <v>3.688005666666667</v>
       </c>
       <c r="N7">
-        <v>0.357313281959381</v>
+        <v>11.064017</v>
       </c>
       <c r="O7">
-        <v>0.0904126310713198</v>
+        <v>0.777735554431318</v>
       </c>
       <c r="P7">
-        <v>0.0904126310713198</v>
+        <v>0.777735554431318</v>
       </c>
       <c r="Q7">
-        <v>0.1358715425363991</v>
+        <v>6.141355548269335</v>
       </c>
       <c r="R7">
-        <v>0.1358715425363991</v>
+        <v>55.27219993442401</v>
       </c>
       <c r="S7">
-        <v>0.01271442060301142</v>
+        <v>0.4577819554684013</v>
       </c>
       <c r="T7">
-        <v>0.01271442060301142</v>
+        <v>0.4577819554684014</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.200820461022182</v>
+        <v>1.665224</v>
       </c>
       <c r="H8">
-        <v>0.200820461022182</v>
+        <v>4.995672000000001</v>
       </c>
       <c r="I8">
-        <v>0.07426703406445399</v>
+        <v>0.5886087537853821</v>
       </c>
       <c r="J8">
-        <v>0.07426703406445399</v>
+        <v>0.5886087537853822</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.59471507652875</v>
+        <v>0.06405566666666666</v>
       </c>
       <c r="N8">
-        <v>3.59471507652875</v>
+        <v>0.192167</v>
       </c>
       <c r="O8">
-        <v>0.9095873689286802</v>
+        <v>0.01350821390534768</v>
       </c>
       <c r="P8">
-        <v>0.9095873689286802</v>
+        <v>0.01350821390534768</v>
       </c>
       <c r="Q8">
-        <v>0.7218923389118919</v>
+        <v>0.1066670334693333</v>
       </c>
       <c r="R8">
-        <v>0.7218923389118919</v>
+        <v>0.9600033012240001</v>
       </c>
       <c r="S8">
-        <v>0.06755235611282337</v>
+        <v>0.007951052952693065</v>
       </c>
       <c r="T8">
-        <v>0.06755235611282337</v>
+        <v>0.007951052952693069</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.200820461022182</v>
+        <v>1.665224</v>
       </c>
       <c r="H9">
-        <v>0.200820461022182</v>
+        <v>4.995672000000001</v>
       </c>
       <c r="I9">
-        <v>0.07426703406445399</v>
+        <v>0.5886087537853821</v>
       </c>
       <c r="J9">
-        <v>0.07426703406445399</v>
+        <v>0.5886087537853822</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.357313281959381</v>
+        <v>0.7983476666666668</v>
       </c>
       <c r="N9">
-        <v>0.357313281959381</v>
+        <v>2.395043</v>
       </c>
       <c r="O9">
-        <v>0.0904126310713198</v>
+        <v>0.1683574867511363</v>
       </c>
       <c r="P9">
-        <v>0.0904126310713198</v>
+        <v>0.1683574867511363</v>
       </c>
       <c r="Q9">
-        <v>0.0717558180124318</v>
+        <v>1.329427694877334</v>
       </c>
       <c r="R9">
-        <v>0.0717558180124318</v>
+        <v>11.964849253896</v>
       </c>
       <c r="S9">
-        <v>0.006714677951630619</v>
+        <v>0.09909669046702535</v>
       </c>
       <c r="T9">
-        <v>0.006714677951630619</v>
+        <v>0.09909669046702536</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4572946666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.371884</v>
+      </c>
+      <c r="I10">
+        <v>0.1616405023344417</v>
+      </c>
+      <c r="J10">
+        <v>0.1616405023344417</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.19157</v>
+      </c>
+      <c r="N10">
+        <v>0.5747100000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.04039874491219805</v>
+      </c>
+      <c r="P10">
+        <v>0.04039874491219806</v>
+      </c>
+      <c r="Q10">
+        <v>0.08760393929333335</v>
+      </c>
+      <c r="R10">
+        <v>0.7884354536400001</v>
+      </c>
+      <c r="S10">
+        <v>0.006530073421288664</v>
+      </c>
+      <c r="T10">
+        <v>0.006530073421288667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.4572946666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.371884</v>
+      </c>
+      <c r="I11">
+        <v>0.1616405023344417</v>
+      </c>
+      <c r="J11">
+        <v>0.1616405023344417</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.688005666666667</v>
+      </c>
+      <c r="N11">
+        <v>11.064017</v>
+      </c>
+      <c r="O11">
+        <v>0.777735554431318</v>
+      </c>
+      <c r="P11">
+        <v>0.777735554431318</v>
+      </c>
+      <c r="Q11">
+        <v>1.686505322003111</v>
+      </c>
+      <c r="R11">
+        <v>15.178547898028</v>
+      </c>
+      <c r="S11">
+        <v>0.1257135657016338</v>
+      </c>
+      <c r="T11">
+        <v>0.1257135657016338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.4572946666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.371884</v>
+      </c>
+      <c r="I12">
+        <v>0.1616405023344417</v>
+      </c>
+      <c r="J12">
+        <v>0.1616405023344417</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.06405566666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.192167</v>
+      </c>
+      <c r="O12">
+        <v>0.01350821390534768</v>
+      </c>
+      <c r="P12">
+        <v>0.01350821390534768</v>
+      </c>
+      <c r="Q12">
+        <v>0.02929231473644444</v>
+      </c>
+      <c r="R12">
+        <v>0.263630832628</v>
+      </c>
+      <c r="S12">
+        <v>0.002183474481301489</v>
+      </c>
+      <c r="T12">
+        <v>0.00218347448130149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4572946666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.371884</v>
+      </c>
+      <c r="I13">
+        <v>0.1616405023344417</v>
+      </c>
+      <c r="J13">
+        <v>0.1616405023344417</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7983476666666668</v>
+      </c>
+      <c r="N13">
+        <v>2.395043</v>
+      </c>
+      <c r="O13">
+        <v>0.1683574867511363</v>
+      </c>
+      <c r="P13">
+        <v>0.1683574867511363</v>
+      </c>
+      <c r="Q13">
+        <v>0.3650801301124445</v>
+      </c>
+      <c r="R13">
+        <v>3.285721171012001</v>
+      </c>
+      <c r="S13">
+        <v>0.02721338873021779</v>
+      </c>
+      <c r="T13">
+        <v>0.0272133887302178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2011266666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.60338</v>
+      </c>
+      <c r="I14">
+        <v>0.07109248762909652</v>
+      </c>
+      <c r="J14">
+        <v>0.07109248762909653</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.19157</v>
+      </c>
+      <c r="N14">
+        <v>0.5747100000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.04039874491219805</v>
+      </c>
+      <c r="P14">
+        <v>0.04039874491219806</v>
+      </c>
+      <c r="Q14">
+        <v>0.03852983553333334</v>
+      </c>
+      <c r="R14">
+        <v>0.3467685198000001</v>
+      </c>
+      <c r="S14">
+        <v>0.002872047272901466</v>
+      </c>
+      <c r="T14">
+        <v>0.002872047272901467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2011266666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.60338</v>
+      </c>
+      <c r="I15">
+        <v>0.07109248762909652</v>
+      </c>
+      <c r="J15">
+        <v>0.07109248762909653</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.688005666666667</v>
+      </c>
+      <c r="N15">
+        <v>11.064017</v>
+      </c>
+      <c r="O15">
+        <v>0.777735554431318</v>
+      </c>
+      <c r="P15">
+        <v>0.777735554431318</v>
+      </c>
+      <c r="Q15">
+        <v>0.7417562863844445</v>
+      </c>
+      <c r="R15">
+        <v>6.67580657746</v>
+      </c>
+      <c r="S15">
+        <v>0.055291155282117</v>
+      </c>
+      <c r="T15">
+        <v>0.05529115528211701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2011266666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.60338</v>
+      </c>
+      <c r="I16">
+        <v>0.07109248762909652</v>
+      </c>
+      <c r="J16">
+        <v>0.07109248762909653</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.06405566666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.192167</v>
+      </c>
+      <c r="O16">
+        <v>0.01350821390534768</v>
+      </c>
+      <c r="P16">
+        <v>0.01350821390534768</v>
+      </c>
+      <c r="Q16">
+        <v>0.01288330271777778</v>
+      </c>
+      <c r="R16">
+        <v>0.11594972446</v>
+      </c>
+      <c r="S16">
+        <v>0.0009603325299571194</v>
+      </c>
+      <c r="T16">
+        <v>0.0009603325299571196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.2011266666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.60338</v>
+      </c>
+      <c r="I17">
+        <v>0.07109248762909652</v>
+      </c>
+      <c r="J17">
+        <v>0.07109248762909653</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.7983476666666668</v>
+      </c>
+      <c r="N17">
+        <v>2.395043</v>
+      </c>
+      <c r="O17">
+        <v>0.1683574867511363</v>
+      </c>
+      <c r="P17">
+        <v>0.1683574867511363</v>
+      </c>
+      <c r="Q17">
+        <v>0.1605690050377778</v>
+      </c>
+      <c r="R17">
+        <v>1.44512104534</v>
+      </c>
+      <c r="S17">
+        <v>0.01196895254412094</v>
+      </c>
+      <c r="T17">
+        <v>0.01196895254412094</v>
       </c>
     </row>
   </sheetData>
